--- a/server/public/uploads/uploadedFile-1670977312640.xlsx
+++ b/server/public/uploads/uploadedFile-1670977312640.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oktay\Desktop\erasmusApp\319-Project\server\public\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C83BE1F-F3B2-41B8-815E-B9F76ED4B9E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{159BA163-1265-49FB-8892-E34EBCEAB55A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13356" yWindow="1764" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
